--- a/criteria1_clean_weighted.xlsx
+++ b/criteria1_clean_weighted.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="29900" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="criteria1_clean_weighted" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>make</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>Pricing Score</t>
+  </si>
+  <si>
+    <t>Safety Score Index</t>
   </si>
 </sst>
 </file>
@@ -247,21 +250,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>criteria1_clean_weighted!$L$2:$L$5</c:f>
+              <c:f>criteria1_clean_weighted!$M$2:$M$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.818181818181818</c:v>
+                  <c:v>0.972108014779744</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.73531774848182</c:v>
+                  <c:v>0.980602365818597</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.724552353527011</c:v>
+                  <c:v>0.973472899340407</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.71276730819956</c:v>
+                  <c:v>0.959783645266895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -277,11 +280,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="863347280"/>
-        <c:axId val="878523984"/>
+        <c:axId val="-1586183408"/>
+        <c:axId val="-1546117680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="863347280"/>
+        <c:axId val="-1586183408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -324,7 +327,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="878523984"/>
+        <c:crossAx val="-1546117680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -332,7 +335,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="878523984"/>
+        <c:axId val="-1546117680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -382,7 +385,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="863347280"/>
+        <c:crossAx val="-1586183408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -978,16 +981,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1010,16 +1013,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L5" totalsRowShown="0">
-  <autoFilter ref="A1:L5"/>
-  <sortState ref="A2:L5">
-    <sortCondition ref="L1:L5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M5" totalsRowShown="0">
+  <autoFilter ref="A1:M5"/>
+  <sortState ref="A2:M5">
+    <sortCondition ref="M1:M5"/>
   </sortState>
-  <tableColumns count="12">
+  <tableColumns count="13">
     <tableColumn id="1" name="make"/>
     <tableColumn id="2" name="model"/>
     <tableColumn id="3" name="year"/>
     <tableColumn id="4" name="safety_rating"/>
+    <tableColumn id="13" name="Safety Score Index">
+      <calculatedColumnFormula>Table1[[#This Row],[safety_rating]]/MAX(Table1[safety_rating])</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="5" name="maintenance"/>
     <tableColumn id="6" name="main_cost_index" dataDxfId="1">
       <calculatedColumnFormula>MIN(Table1[maintenance])/Table1[[#This Row],[maintenance]]</calculatedColumnFormula>
@@ -1029,12 +1035,16 @@
       <calculatedColumnFormula>MIN(Table1[price_point])/Table1[[#This Row],[price_point]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" name="Safety score" dataDxfId="0">
-      <calculatedColumnFormula>Table1[[#This Row],[safety_rating]]*C7</calculatedColumnFormula>
+      <calculatedColumnFormula>Table1[[#This Row],[Safety Score Index]]*C8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Maintainence Score"/>
-    <tableColumn id="11" name="Pricing Score"/>
+    <tableColumn id="10" name="Maintainence Score">
+      <calculatedColumnFormula>Table1[[#This Row],[main_cost_index]]*C9</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" name="Pricing Score">
+      <calculatedColumnFormula>Table1[[#This Row],[price_index]]*C10</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="12" name="Weighted score">
-      <calculatedColumnFormula>SUM(I2:K2)</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(Table1[[#This Row],[Safety score]],Table1[[#This Row],[Maintainence Score]],Table1[[#This Row],[Pricing Score]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1304,26 +1314,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCellId="1" sqref="I1:K5 A1:A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" customWidth="1"/>
-    <col min="9" max="9" width="13.83203125" customWidth="1"/>
-    <col min="10" max="10" width="20.1640625" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
-    <col min="12" max="12" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" customWidth="1"/>
+    <col min="11" max="11" width="20.1640625" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1337,31 +1348,34 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1375,125 +1389,137 @@
         <v>5</v>
       </c>
       <c r="E2">
-        <v>1937</v>
+        <f>Table1[[#This Row],[safety_rating]]/MAX(Table1[safety_rating])</f>
+        <v>1</v>
       </c>
       <c r="F2">
+        <v>2182</v>
+      </c>
+      <c r="G2">
+        <f>MIN(Table1[maintenance])/Table1[[#This Row],[maintenance]]</f>
+        <v>0.8982584784601283</v>
+      </c>
+      <c r="H2">
+        <v>25020</v>
+      </c>
+      <c r="I2">
+        <f>MIN(Table1[price_point])/Table1[[#This Row],[price_point]]</f>
+        <v>0.98501199040767384</v>
+      </c>
+      <c r="J2">
+        <f>Table1[[#This Row],[Safety Score Index]]*C8</f>
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="K2">
+        <f>Table1[[#This Row],[main_cost_index]]*C9</f>
+        <v>0.2041496541954837</v>
+      </c>
+      <c r="L2">
+        <f>Table1[[#This Row],[price_index]]*C10</f>
+        <v>0.31341290603880528</v>
+      </c>
+      <c r="M2">
+        <f>SUM(Table1[[#This Row],[Safety score]],Table1[[#This Row],[Maintainence Score]],Table1[[#This Row],[Pricing Score]])</f>
+        <v>0.97210801477974362</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>2017</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <f>Table1[[#This Row],[safety_rating]]/MAX(Table1[safety_rating])</f>
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1960</v>
+      </c>
+      <c r="G3">
         <f>MIN(Table1[maintenance])/Table1[[#This Row],[maintenance]]</f>
         <v>1</v>
       </c>
-      <c r="G2">
-        <v>19630</v>
-      </c>
-      <c r="H2">
+      <c r="H3">
+        <v>26245</v>
+      </c>
+      <c r="I3">
+        <f>MIN(Table1[price_point])/Table1[[#This Row],[price_point]]</f>
+        <v>0.93903600685844923</v>
+      </c>
+      <c r="J3">
+        <f>Table1[[#This Row],[Safety Score Index]]*C8</f>
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="K3">
+        <f>Table1[[#This Row],[main_cost_index]]*C9</f>
+        <v>0.22727272727272727</v>
+      </c>
+      <c r="L3">
+        <f>Table1[[#This Row],[price_index]]*C10</f>
+        <v>0.29878418400041568</v>
+      </c>
+      <c r="M3">
+        <f>SUM(Table1[[#This Row],[Safety score]],Table1[[#This Row],[Maintainence Score]],Table1[[#This Row],[Pricing Score]])</f>
+        <v>0.98060236581859739</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>2017</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <f>Table1[[#This Row],[safety_rating]]/MAX(Table1[safety_rating])</f>
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2219</v>
+      </c>
+      <c r="G4">
+        <f>MIN(Table1[maintenance])/Table1[[#This Row],[maintenance]]</f>
+        <v>0.88328075709779175</v>
+      </c>
+      <c r="H4">
+        <v>24645</v>
+      </c>
+      <c r="I4">
         <f>MIN(Table1[price_point])/Table1[[#This Row],[price_point]]</f>
         <v>1</v>
       </c>
-      <c r="I2">
-        <f>Table1[[#This Row],[safety_rating]]*C8</f>
-        <v>2.2727272727272725</v>
-      </c>
-      <c r="J2">
-        <f>F2*C9</f>
-        <v>0.22727272727272727</v>
-      </c>
-      <c r="K2">
-        <f>(H2*C10)</f>
+      <c r="J4">
+        <f>Table1[[#This Row],[Safety Score Index]]*C8</f>
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="K4">
+        <f>Table1[[#This Row],[main_cost_index]]*C9</f>
+        <v>0.20074562661313447</v>
+      </c>
+      <c r="L4">
+        <f>Table1[[#This Row],[price_index]]*C10</f>
         <v>0.31818181818181818</v>
       </c>
-      <c r="L2">
-        <f>SUM(I2:K2)</f>
-        <v>2.8181818181818179</v>
+      <c r="M4">
+        <f>SUM(Table1[[#This Row],[Safety score]],Table1[[#This Row],[Maintainence Score]],Table1[[#This Row],[Pricing Score]])</f>
+        <v>0.97347289934040715</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>2017</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>1960</v>
-      </c>
-      <c r="F3">
-        <f>MIN(Table1[maintenance])/Table1[[#This Row],[maintenance]]</f>
-        <v>0.98826530612244901</v>
-      </c>
-      <c r="G3">
-        <v>26245</v>
-      </c>
-      <c r="H3">
-        <f>MIN(Table1[price_point])/Table1[[#This Row],[price_point]]</f>
-        <v>0.74795199085540098</v>
-      </c>
-      <c r="I3">
-        <f>Table1[[#This Row],[safety_rating]]*C8</f>
-        <v>2.2727272727272725</v>
-      </c>
-      <c r="J3">
-        <f>F3*C9</f>
-        <v>0.22460575139146569</v>
-      </c>
-      <c r="K3">
-        <f>(H3*C10)</f>
-        <v>0.23798472436308213</v>
-      </c>
-      <c r="L3">
-        <f>SUM(I3:K3)</f>
-        <v>2.7353177484818203</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>2017</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>2219</v>
-      </c>
-      <c r="F4">
-        <f>MIN(Table1[maintenance])/Table1[[#This Row],[maintenance]]</f>
-        <v>0.87291572780531768</v>
-      </c>
-      <c r="G4">
-        <v>24645</v>
-      </c>
-      <c r="H4">
-        <f>MIN(Table1[price_point])/Table1[[#This Row],[price_point]]</f>
-        <v>0.79651044836680873</v>
-      </c>
-      <c r="I4">
-        <f>Table1[[#This Row],[safety_rating]]*C8</f>
-        <v>2.2727272727272725</v>
-      </c>
-      <c r="J4">
-        <f>F4*C9</f>
-        <v>0.19838993813757219</v>
-      </c>
-      <c r="K4">
-        <f>(H4*C10)</f>
-        <v>0.25343514266216643</v>
-      </c>
-      <c r="L4">
-        <f>SUM(I4:K4)</f>
-        <v>2.7245523535270113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1507,37 +1533,41 @@
         <v>5</v>
       </c>
       <c r="E5">
+        <f>Table1[[#This Row],[safety_rating]]/MAX(Table1[safety_rating])</f>
+        <v>1</v>
+      </c>
+      <c r="F5">
         <v>2271</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <f>MIN(Table1[maintenance])/Table1[[#This Row],[maintenance]]</f>
-        <v>0.85292822545134306</v>
-      </c>
-      <c r="G5">
+        <v>0.86305592250110086</v>
+      </c>
+      <c r="H5">
         <v>25370</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <f>MIN(Table1[price_point])/Table1[[#This Row],[price_point]]</f>
-        <v>0.77374852187623178</v>
-      </c>
-      <c r="I5">
-        <f>Table1[[#This Row],[safety_rating]]*C8</f>
-        <v>2.2727272727272725</v>
+        <v>0.97142294048088296</v>
       </c>
       <c r="J5">
-        <f>F5*C9</f>
-        <v>0.19384732396621432</v>
+        <f>Table1[[#This Row],[Safety Score Index]]*C8</f>
+        <v>0.45454545454545453</v>
       </c>
       <c r="K5">
-        <f>(H5*C10)</f>
-        <v>0.24619271150607375</v>
+        <f>Table1[[#This Row],[main_cost_index]]*C9</f>
+        <v>0.19614907329570475</v>
       </c>
       <c r="L5">
-        <f>SUM(I5:K5)</f>
-        <v>2.7127673081995605</v>
+        <f>Table1[[#This Row],[price_index]]*C10</f>
+        <v>0.30908911742573547</v>
+      </c>
+      <c r="M5">
+        <f>SUM(Table1[[#This Row],[Safety score]],Table1[[#This Row],[Maintainence Score]],Table1[[#This Row],[Pricing Score]])</f>
+        <v>0.95978364526689486</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>19</v>
       </c>
@@ -1545,7 +1575,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1557,7 +1587,7 @@
         <v>0.45454545454545453</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1569,7 +1599,7 @@
         <v>0.22727272727272727</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>

--- a/criteria1_clean_weighted.xlsx
+++ b/criteria1_clean_weighted.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="29900" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="29900" windowHeight="20540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="criteria1_clean_weighted" sheetId="1" r:id="rId1"/>
@@ -27,25 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>model</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>safety_rating</t>
-  </si>
-  <si>
-    <t>maintenance</t>
-  </si>
-  <si>
-    <t>price_point</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
   <si>
     <t>Honda</t>
   </si>
@@ -71,9 +53,6 @@
     <t>RAV4</t>
   </si>
   <si>
-    <t>price_index</t>
-  </si>
-  <si>
     <t>Weighted score</t>
   </si>
   <si>
@@ -92,26 +71,50 @@
     <t>Weighing Factor</t>
   </si>
   <si>
-    <t>main_cost_index</t>
-  </si>
-  <si>
-    <t>Safety score</t>
-  </si>
-  <si>
-    <t>Maintainence Score</t>
-  </si>
-  <si>
-    <t>Pricing Score</t>
-  </si>
-  <si>
-    <t>Safety Score Index</t>
+    <t>Make</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Safety Rating</t>
+  </si>
+  <si>
+    <t>Maintenance cost</t>
+  </si>
+  <si>
+    <t>Price point</t>
+  </si>
+  <si>
+    <t>Safety Comparative Score</t>
+  </si>
+  <si>
+    <t>Maintenance Comparative Score</t>
+  </si>
+  <si>
+    <t>Price Point Comparative Score</t>
+  </si>
+  <si>
+    <t>Safety Weighted Score</t>
+  </si>
+  <si>
+    <t>Maintenance Weighted Score</t>
+  </si>
+  <si>
+    <t>Price Point Weighted Score</t>
+  </si>
+  <si>
+    <t>Criteria</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -119,16 +122,56 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4472C4"/>
+        <bgColor rgb="FF4472C4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -136,22 +179,184 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="1">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF4472C4"/>
+          <bgColor rgb="FF4472C4"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -218,6 +423,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>criteria1_clean_weighted!$G$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Weighted score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -230,7 +446,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>criteria1_clean_weighted!$A$2:$A$5</c:f>
+              <c:f>criteria1_clean_weighted!$A$16:$A$19</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -250,7 +466,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>criteria1_clean_weighted!$M$2:$M$5</c:f>
+              <c:f>criteria1_clean_weighted!$G$16:$G$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -280,11 +496,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1586183408"/>
-        <c:axId val="-1546117680"/>
+        <c:axId val="-1460761392"/>
+        <c:axId val="-1461034240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1586183408"/>
+        <c:axId val="-1460761392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -327,7 +543,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1546117680"/>
+        <c:crossAx val="-1461034240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -335,7 +551,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1546117680"/>
+        <c:axId val="-1461034240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -385,7 +601,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1586183408"/>
+        <c:crossAx val="-1460761392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -981,20 +1197,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1013,38 +1229,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M5" totalsRowShown="0">
-  <autoFilter ref="A1:M5"/>
-  <sortState ref="A2:M5">
-    <sortCondition ref="M1:M5"/>
-  </sortState>
-  <tableColumns count="13">
-    <tableColumn id="1" name="make"/>
-    <tableColumn id="2" name="model"/>
-    <tableColumn id="3" name="year"/>
-    <tableColumn id="4" name="safety_rating"/>
-    <tableColumn id="13" name="Safety Score Index">
-      <calculatedColumnFormula>Table1[[#This Row],[safety_rating]]/MAX(Table1[safety_rating])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" name="maintenance"/>
-    <tableColumn id="6" name="main_cost_index" dataDxfId="1">
-      <calculatedColumnFormula>MIN(Table1[maintenance])/Table1[[#This Row],[maintenance]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" name="price_point"/>
-    <tableColumn id="8" name="price_index">
-      <calculatedColumnFormula>MIN(Table1[price_point])/Table1[[#This Row],[price_point]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" name="Safety score" dataDxfId="0">
-      <calculatedColumnFormula>Table1[[#This Row],[Safety Score Index]]*C8</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="10" name="Maintainence Score">
-      <calculatedColumnFormula>Table1[[#This Row],[main_cost_index]]*C9</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="11" name="Pricing Score">
-      <calculatedColumnFormula>Table1[[#This Row],[price_index]]*C10</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="12" name="Weighted score">
-      <calculatedColumnFormula>SUM(Table1[[#This Row],[Safety score]],Table1[[#This Row],[Maintainence Score]],Table1[[#This Row],[Pricing Score]])</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F5" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:F5"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Make"/>
+    <tableColumn id="2" name="Model"/>
+    <tableColumn id="3" name="Year"/>
+    <tableColumn id="4" name="Safety Rating"/>
+    <tableColumn id="5" name="Maintenance cost"/>
+    <tableColumn id="7" name="Price point"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="H1:J4" totalsRowShown="0">
+  <autoFilter ref="H1:J4"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Criteria"/>
+    <tableColumn id="2" name="Weight"/>
+    <tableColumn id="3" name="Weighing Factor">
+      <calculatedColumnFormula>Table2[[#This Row],[Weight]]/SUM(Table2[Weight])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1314,73 +1520,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" customWidth="1"/>
-    <col min="8" max="8" width="13.1640625" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1"/>
-    <col min="10" max="10" width="13.83203125" customWidth="1"/>
-    <col min="11" max="11" width="20.1640625" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1640625" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
       </c>
       <c r="C2">
         <v>2017</v>
@@ -1389,46 +1583,28 @@
         <v>5</v>
       </c>
       <c r="E2">
-        <f>Table1[[#This Row],[safety_rating]]/MAX(Table1[safety_rating])</f>
-        <v>1</v>
+        <v>2182</v>
       </c>
       <c r="F2">
-        <v>2182</v>
-      </c>
-      <c r="G2">
-        <f>MIN(Table1[maintenance])/Table1[[#This Row],[maintenance]]</f>
-        <v>0.8982584784601283</v>
-      </c>
-      <c r="H2">
         <v>25020</v>
       </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
       <c r="I2">
-        <f>MIN(Table1[price_point])/Table1[[#This Row],[price_point]]</f>
-        <v>0.98501199040767384</v>
+        <v>10</v>
       </c>
       <c r="J2">
-        <f>Table1[[#This Row],[Safety Score Index]]*C8</f>
+        <f>Table2[[#This Row],[Weight]]/SUM(Table2[Weight])</f>
         <v>0.45454545454545453</v>
       </c>
-      <c r="K2">
-        <f>Table1[[#This Row],[main_cost_index]]*C9</f>
-        <v>0.2041496541954837</v>
-      </c>
-      <c r="L2">
-        <f>Table1[[#This Row],[price_index]]*C10</f>
-        <v>0.31341290603880528</v>
-      </c>
-      <c r="M2">
-        <f>SUM(Table1[[#This Row],[Safety score]],Table1[[#This Row],[Maintainence Score]],Table1[[#This Row],[Pricing Score]])</f>
-        <v>0.97210801477974362</v>
-      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>2017</v>
@@ -1437,46 +1613,28 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <f>Table1[[#This Row],[safety_rating]]/MAX(Table1[safety_rating])</f>
-        <v>1</v>
+        <v>1960</v>
       </c>
       <c r="F3">
-        <v>1960</v>
-      </c>
-      <c r="G3">
-        <f>MIN(Table1[maintenance])/Table1[[#This Row],[maintenance]]</f>
-        <v>1</v>
-      </c>
-      <c r="H3">
         <v>26245</v>
       </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
       <c r="I3">
-        <f>MIN(Table1[price_point])/Table1[[#This Row],[price_point]]</f>
-        <v>0.93903600685844923</v>
+        <v>5</v>
       </c>
       <c r="J3">
-        <f>Table1[[#This Row],[Safety Score Index]]*C8</f>
-        <v>0.45454545454545453</v>
-      </c>
-      <c r="K3">
-        <f>Table1[[#This Row],[main_cost_index]]*C9</f>
+        <f>Table2[[#This Row],[Weight]]/SUM(Table2[Weight])</f>
         <v>0.22727272727272727</v>
       </c>
-      <c r="L3">
-        <f>Table1[[#This Row],[price_index]]*C10</f>
-        <v>0.29878418400041568</v>
-      </c>
-      <c r="M3">
-        <f>SUM(Table1[[#This Row],[Safety score]],Table1[[#This Row],[Maintainence Score]],Table1[[#This Row],[Pricing Score]])</f>
-        <v>0.98060236581859739</v>
-      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>2017</v>
@@ -1485,46 +1643,28 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <f>Table1[[#This Row],[safety_rating]]/MAX(Table1[safety_rating])</f>
-        <v>1</v>
+        <v>2219</v>
       </c>
       <c r="F4">
-        <v>2219</v>
-      </c>
-      <c r="G4">
-        <f>MIN(Table1[maintenance])/Table1[[#This Row],[maintenance]]</f>
-        <v>0.88328075709779175</v>
-      </c>
-      <c r="H4">
         <v>24645</v>
       </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
       <c r="I4">
-        <f>MIN(Table1[price_point])/Table1[[#This Row],[price_point]]</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J4">
-        <f>Table1[[#This Row],[Safety Score Index]]*C8</f>
-        <v>0.45454545454545453</v>
-      </c>
-      <c r="K4">
-        <f>Table1[[#This Row],[main_cost_index]]*C9</f>
-        <v>0.20074562661313447</v>
-      </c>
-      <c r="L4">
-        <f>Table1[[#This Row],[price_index]]*C10</f>
+        <f>Table2[[#This Row],[Weight]]/SUM(Table2[Weight])</f>
         <v>0.31818181818181818</v>
       </c>
-      <c r="M4">
-        <f>SUM(Table1[[#This Row],[Safety score]],Table1[[#This Row],[Maintainence Score]],Table1[[#This Row],[Pricing Score]])</f>
-        <v>0.97347289934040715</v>
-      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>2017</v>
@@ -1533,90 +1673,262 @@
         <v>5</v>
       </c>
       <c r="E5">
-        <f>Table1[[#This Row],[safety_rating]]/MAX(Table1[safety_rating])</f>
+        <v>2271</v>
+      </c>
+      <c r="F5">
+        <v>25370</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F5">
-        <v>2271</v>
-      </c>
-      <c r="G5">
-        <f>MIN(Table1[maintenance])/Table1[[#This Row],[maintenance]]</f>
+      <c r="C9" s="3">
+        <v>2017</v>
+      </c>
+      <c r="D9" s="3">
+        <f>D2/MAX(Table1[Safety Rating])</f>
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <f>MIN(Table1[Maintenance cost])/E2</f>
+        <v>0.8982584784601283</v>
+      </c>
+      <c r="F9" s="3">
+        <f>MIN(Table1[Price point])/F2</f>
+        <v>0.98501199040767384</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2017</v>
+      </c>
+      <c r="D10" s="3">
+        <f>D3/MAX(Table1[Safety Rating])</f>
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <f>MIN(Table1[Maintenance cost])/E3</f>
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <f>MIN(Table1[Price point])/F3</f>
+        <v>0.93903600685844923</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2017</v>
+      </c>
+      <c r="D11" s="3">
+        <f>D4/MAX(Table1[Safety Rating])</f>
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <f>MIN(Table1[Maintenance cost])/E4</f>
+        <v>0.88328075709779175</v>
+      </c>
+      <c r="F11" s="3">
+        <f>MIN(Table1[Price point])/F4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="6">
+        <v>2017</v>
+      </c>
+      <c r="D12" s="3">
+        <f>D5/MAX(Table1[Safety Rating])</f>
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <f>MIN(Table1[Maintenance cost])/E5</f>
         <v>0.86305592250110086</v>
       </c>
-      <c r="H5">
-        <v>25370</v>
-      </c>
-      <c r="I5">
-        <f>MIN(Table1[price_point])/Table1[[#This Row],[price_point]]</f>
+      <c r="F12" s="3">
+        <f>MIN(Table1[Price point])/F5</f>
         <v>0.97142294048088296</v>
       </c>
-      <c r="J5">
-        <f>Table1[[#This Row],[Safety Score Index]]*C8</f>
+    </row>
+    <row r="15" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2017</v>
+      </c>
+      <c r="D16" s="3">
+        <f>D9*J2</f>
         <v>0.45454545454545453</v>
       </c>
-      <c r="K5">
-        <f>Table1[[#This Row],[main_cost_index]]*C9</f>
+      <c r="E16" s="3">
+        <f>E9*J3</f>
+        <v>0.2041496541954837</v>
+      </c>
+      <c r="F16" s="3">
+        <f>F9*J4</f>
+        <v>0.31341290603880528</v>
+      </c>
+      <c r="G16" s="4">
+        <f>SUM(D16:F16)</f>
+        <v>0.97210801477974362</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="5">
+        <v>2017</v>
+      </c>
+      <c r="D17" s="3">
+        <f>D10*J2</f>
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="E17" s="3">
+        <f>E10*J3</f>
+        <v>0.22727272727272727</v>
+      </c>
+      <c r="F17" s="3">
+        <f>F10*J4</f>
+        <v>0.29878418400041568</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" ref="G17:G19" si="0">SUM(D17:F17)</f>
+        <v>0.98060236581859739</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2017</v>
+      </c>
+      <c r="D18" s="3">
+        <f>D11*J2</f>
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="E18" s="3">
+        <f>E11*J3</f>
+        <v>0.20074562661313447</v>
+      </c>
+      <c r="F18" s="3">
+        <f>F11*J4</f>
+        <v>0.31818181818181818</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="0"/>
+        <v>0.97347289934040715</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="6">
+        <v>2017</v>
+      </c>
+      <c r="D19" s="3">
+        <f>D12*J2</f>
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="E19" s="3">
+        <f>E12*J3</f>
         <v>0.19614907329570475</v>
       </c>
-      <c r="L5">
-        <f>Table1[[#This Row],[price_index]]*C10</f>
+      <c r="F19" s="3">
+        <f>F12*J4</f>
         <v>0.30908911742573547</v>
       </c>
-      <c r="M5">
-        <f>SUM(Table1[[#This Row],[Safety score]],Table1[[#This Row],[Maintainence Score]],Table1[[#This Row],[Pricing Score]])</f>
+      <c r="G19" s="4">
+        <f t="shared" si="0"/>
         <v>0.95978364526689486</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <f>B8/SUM(B8:B10)</f>
-        <v>0.45454545454545453</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <f>B9/SUM(B8:B11)</f>
-        <v>0.22727272727272727</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <f>B10/SUM(B8:B12)</f>
-        <v>0.31818181818181818</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>